--- a/src/models/baselines/SVM/results/real-world/IMDb/metrics.xlsx
+++ b/src/models/baselines/SVM/results/real-world/IMDb/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8311384290814671</v>
+        <v>0.83047711781889</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7820675105485231</v>
+        <v>0.7921670453316022</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8067875689711133</v>
+        <v>0.8204844206426486</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8485745969923185</v>
+        <v>0.8422955209347615</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8565089797684734</v>
+        <v>0.8561762955750298</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7908268419344369</v>
+        <v>0.7812087525695121</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.800718111002921</v>
+        <v>0.798132370442497</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7843313859136645</v>
+        <v>0.7754692740452235</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8375770853618955</v>
+        <v>0.8325151465974251</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8153994915070865</v>
+        <v>0.8363261386995564</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6389830508474577</v>
+        <v>0.6330508474576272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6389830508474577</v>
+        <v>0.6330508474576272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8153930001081899</v>
+        <v>0.8165252082657146</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04830425875660804</v>
+        <v>0.05209548120325765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04830425875660804</v>
+        <v>0.05209548120325765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02687400322270552</v>
+        <v>0.02780659837554521</v>
       </c>
     </row>
   </sheetData>
